--- a/skeleton - 23.07.2024.xlsx
+++ b/skeleton - 23.07.2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\solar\heydaysolar2.github.io-main\heydaysolar2.github.io-main\solar\bracketweb.com\eolimn-html - Copy\heyday3.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7736255A-D0FC-4E9C-A6B4-D17210752995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC1F3D-9F0B-4BFE-9C0B-70702B86E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home page" sheetId="1" r:id="rId1"/>
@@ -564,16 +564,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>18</v>
@@ -593,7 +593,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,14 +610,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -647,7 +647,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -685,18 +685,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0504D71-6005-497C-A674-888E1E52147B}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="1" max="15" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -704,38 +704,38 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -743,102 +743,102 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" t="s">
         <v>41</v>
       </c>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="U13" s="10"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="D15" t="s">
         <v>34</v>
       </c>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" t="s">
         <v>35</v>
       </c>
       <c r="U16" s="10"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="U18" s="10"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="U20" s="10"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -846,18 +846,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="U23" s="10"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -865,69 +865,69 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U38" s="2"/>
     </row>
   </sheetData>
@@ -949,63 +949,63 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="3.6640625" customWidth="1"/>
+    <col min="1" max="17" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1023,12 +1023,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1046,63 +1046,63 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1116,38 +1116,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0248177-4303-4886-A399-459BF40FDCB1}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
